--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_1_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_1_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1376 +518,1266 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_23</t>
+          <t>model_1_8_20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9392369666440517</v>
+        <v>0.9366063899119206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.778349628654615</v>
+        <v>0.766493879337706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.95207961271971</v>
+        <v>0.9242885799082458</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7630357514755058</v>
+        <v>-8.358708402409681</v>
       </c>
       <c r="F2" t="n">
-        <v>0.922366648425364</v>
+        <v>0.918343839770524</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4063226838392686</v>
+        <v>0.4239133625597215</v>
       </c>
       <c r="H2" t="n">
-        <v>1.482177053792705</v>
+        <v>1.561456504065581</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4307111643000633</v>
+        <v>1.081418073253798</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5441194324257213</v>
+        <v>0.1609014794922087</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4874152983628923</v>
+        <v>0.6211597815652897</v>
       </c>
       <c r="L2" t="n">
-        <v>1.096146797788311</v>
+        <v>0.946694613751103</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6374344545435778</v>
+        <v>0.6510862942496344</v>
       </c>
       <c r="N2" t="n">
-        <v>1.039413859474129</v>
+        <v>1.041120179516592</v>
       </c>
       <c r="O2" t="n">
-        <v>0.664571358944726</v>
+        <v>0.6788043857302734</v>
       </c>
       <c r="P2" t="n">
-        <v>123.801215294551</v>
+        <v>123.7164523564294</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.1526406115113</v>
+        <v>198.0678776733896</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_24</t>
+          <t>model_1_8_19</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9393389655910352</v>
+        <v>0.9362378762172323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7783385753061151</v>
+        <v>0.7664878789888365</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9508403323877789</v>
+        <v>0.9247111253847951</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7561599505194784</v>
+        <v>-7.943479748080538</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9202222420422759</v>
+        <v>0.919209774193898</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4056406164111278</v>
+        <v>0.4263776153329515</v>
       </c>
       <c r="H3" t="n">
-        <v>1.48225096758502</v>
+        <v>1.5614966284261</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4418498863545856</v>
+        <v>1.075382678401102</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5599077082393157</v>
+        <v>0.153762577206086</v>
       </c>
       <c r="K3" t="n">
-        <v>0.500878796406247</v>
+        <v>0.614572603870903</v>
       </c>
       <c r="L3" t="n">
-        <v>1.094140738489854</v>
+        <v>0.9435784740424942</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6368992199799963</v>
+        <v>0.6529759684191689</v>
       </c>
       <c r="N3" t="n">
-        <v>1.039347697995004</v>
+        <v>1.04135921542666</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6640133383376845</v>
+        <v>0.6807745072413698</v>
       </c>
       <c r="P3" t="n">
-        <v>123.8045753852761</v>
+        <v>123.7048598087649</v>
       </c>
       <c r="Q3" t="n">
-        <v>198.1560007022364</v>
+        <v>198.0562851257251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_22</t>
+          <t>model_1_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.939110395638751</v>
+        <v>0.9369573611630655</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7783376335029704</v>
+        <v>0.7664876385086136</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9533196673976405</v>
+        <v>0.9238596754258727</v>
       </c>
       <c r="E4" t="n">
-        <v>0.769737566013743</v>
+        <v>-8.778565699868041</v>
       </c>
       <c r="F4" t="n">
-        <v>0.924479793192169</v>
+        <v>0.917466711035572</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4071690647345201</v>
+        <v>0.4215664161872414</v>
       </c>
       <c r="H4" t="n">
-        <v>1.482257265426985</v>
+        <v>1.561498236518458</v>
       </c>
       <c r="I4" t="n">
-        <v>0.419565482379691</v>
+        <v>1.087544296462605</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5287306657848703</v>
+        <v>0.1681199606577568</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4741480740822807</v>
+        <v>0.6278321145757607</v>
       </c>
       <c r="L4" t="n">
-        <v>1.098130873267335</v>
+        <v>0.9493533730126866</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6380980055873237</v>
+        <v>0.6492814614535374</v>
       </c>
       <c r="N4" t="n">
-        <v>1.039495959585675</v>
+        <v>1.040892522488822</v>
       </c>
       <c r="O4" t="n">
-        <v>0.665263158730144</v>
+        <v>0.6769227174655277</v>
       </c>
       <c r="P4" t="n">
-        <v>123.797053574646</v>
+        <v>123.7275558858555</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.1484788916063</v>
+        <v>198.0789812028158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_21</t>
+          <t>model_1_8_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9389581413192136</v>
+        <v>0.9372909999686612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7783015141530608</v>
+        <v>0.7664694980038786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9545599390156072</v>
+        <v>0.9234242414650307</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7762531675525086</v>
+        <v>-9.202558199669891</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9265590414019191</v>
+        <v>0.9165787674043004</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4081871900703328</v>
+        <v>0.4193353719579578</v>
       </c>
       <c r="H5" t="n">
-        <v>1.482498795686145</v>
+        <v>1.561619542157151</v>
       </c>
       <c r="I5" t="n">
-        <v>0.408417850589944</v>
+        <v>1.093763782960049</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5137694831032605</v>
+        <v>0.1754095371226194</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4610936668466022</v>
+        <v>0.6345867166840751</v>
       </c>
       <c r="L5" t="n">
-        <v>1.10008403869965</v>
+        <v>0.9515690522649183</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6388952888152587</v>
+        <v>0.6475610951547026</v>
       </c>
       <c r="N5" t="n">
-        <v>1.039594719144294</v>
+        <v>1.040676108128436</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6660943839556961</v>
+        <v>0.6751291116117022</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7920588212043</v>
+        <v>123.7381685376334</v>
       </c>
       <c r="Q5" t="n">
-        <v>198.1434841381646</v>
+        <v>198.0895938545937</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_20</t>
+          <t>model_1_8_18</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9387790564381033</v>
+        <v>0.93585118882985</v>
       </c>
       <c r="C6" t="n">
-        <v>0.778240136910691</v>
+        <v>0.7664692236530466</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9557998390138209</v>
+        <v>0.9251273515785636</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7825713767023141</v>
+        <v>-7.533224214329769</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9286019274509467</v>
+        <v>0.9200641482544321</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4093847314949281</v>
+        <v>0.4289633956729086</v>
       </c>
       <c r="H6" t="n">
-        <v>1.482909225588487</v>
+        <v>1.561621376742427</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3972735589396563</v>
+        <v>1.069437544523577</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4992615545952863</v>
+        <v>0.1467091762973273</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4482675567674713</v>
+        <v>0.6080733660506948</v>
       </c>
       <c r="L6" t="n">
-        <v>1.10201117272884</v>
+        <v>0.9399913735424092</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6398317993777178</v>
+        <v>0.6549529721078519</v>
       </c>
       <c r="N6" t="n">
-        <v>1.03971088231042</v>
+        <v>1.041610039677935</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6670707637116432</v>
+        <v>0.6828356760700419</v>
       </c>
       <c r="P6" t="n">
-        <v>123.786199802569</v>
+        <v>123.6927673769325</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.1376251195292</v>
+        <v>198.0441926938928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_19</t>
+          <t>model_1_8_17</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9385721091911172</v>
+        <v>0.9354460155533003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7781523919788517</v>
+        <v>0.7664374990232296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9570386558253448</v>
+        <v>0.9255373422327415</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7886803731841622</v>
+        <v>-7.128440574884191</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9306057797838058</v>
+        <v>0.9209064887555913</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4107685886884281</v>
+        <v>0.4316727912388474</v>
       </c>
       <c r="H7" t="n">
-        <v>1.483495976351725</v>
+        <v>1.561833519488092</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3861390030328974</v>
+        <v>1.063581475482</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4852340220915792</v>
+        <v>0.1397498520337073</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4356865170096211</v>
+        <v>0.601665667718649</v>
       </c>
       <c r="L7" t="n">
-        <v>1.103900135080274</v>
+        <v>0.9359258381386555</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6409123096714777</v>
+        <v>0.6570181057161572</v>
       </c>
       <c r="N7" t="n">
-        <v>1.039845118362519</v>
+        <v>1.041872854776238</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6681972735655731</v>
+        <v>0.6849887266914686</v>
       </c>
       <c r="P7" t="n">
-        <v>123.7794505352174</v>
+        <v>123.6801748108383</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.1308758521777</v>
+        <v>198.0316001277986</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_18</t>
+          <t>model_1_8_16</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9383361142490915</v>
+        <v>0.9350218545584977</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7780371022405701</v>
+        <v>0.7663922828004789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9582758039649941</v>
+        <v>0.9259410864807631</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7945677078724808</v>
+        <v>-6.729488104627773</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9325679049323847</v>
+        <v>0.9217363747557852</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4123466879524113</v>
+        <v>0.4345091577641744</v>
       </c>
       <c r="H8" t="n">
-        <v>1.484266919362475</v>
+        <v>1.562135880577828</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3750194452437806</v>
+        <v>1.057814626488103</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4717154713859142</v>
+        <v>0.1328907813210434</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4233674583148474</v>
+        <v>0.5953527109845114</v>
       </c>
       <c r="L8" t="n">
-        <v>1.105753995756117</v>
+        <v>0.931369594619778</v>
       </c>
       <c r="M8" t="n">
-        <v>0.642142264574145</v>
+        <v>0.6591730863469581</v>
       </c>
       <c r="N8" t="n">
-        <v>1.039998196162752</v>
+        <v>1.042147986232326</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6694795901948046</v>
+        <v>0.6872354493091477</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7717816157242</v>
+        <v>123.6670765158829</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.1232069326844</v>
+        <v>198.0185018328431</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_17</t>
+          <t>model_1_8_15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9380698684392853</v>
+        <v>0.9345783118693948</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7778929731665516</v>
+        <v>0.7663331066389046</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9595103528154689</v>
+        <v>0.9263385879929193</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8002207653152428</v>
+        <v>-6.336944539179528</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9344853277213709</v>
+        <v>0.9225531581851348</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4141270749085342</v>
+        <v>0.4374751297685322</v>
       </c>
       <c r="H9" t="n">
-        <v>1.485230711144089</v>
+        <v>1.562531591842756</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3639232500134883</v>
+        <v>1.052136945117571</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4587348701923646</v>
+        <v>0.1261418969953488</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4113290601029265</v>
+        <v>0.5891394257267278</v>
       </c>
       <c r="L9" t="n">
-        <v>1.107565979180453</v>
+        <v>0.9263030698166534</v>
       </c>
       <c r="M9" t="n">
-        <v>0.643527058412103</v>
+        <v>0.6614190273711003</v>
       </c>
       <c r="N9" t="n">
-        <v>1.040170896147491</v>
+        <v>1.042435689598231</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6709233375733629</v>
+        <v>0.6895770046924263</v>
       </c>
       <c r="P9" t="n">
-        <v>123.7631648160621</v>
+        <v>123.6534708420873</v>
       </c>
       <c r="Q9" t="n">
-        <v>198.1145901330223</v>
+        <v>198.0048961590475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_16</t>
+          <t>model_1_8_14</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9377722000875005</v>
+        <v>0.9341148566625792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7777187007297218</v>
+        <v>0.7662594875738984</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9607415723141388</v>
+        <v>0.926730122778942</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8056261916494655</v>
+        <v>-5.951289740290696</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9363550843341872</v>
+        <v>0.9233565559989656</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4161175845475562</v>
+        <v>0.4405742568705232</v>
       </c>
       <c r="H10" t="n">
-        <v>1.486396071731621</v>
+        <v>1.563023882869437</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3528569791864336</v>
+        <v>1.046544489007261</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4463228817708612</v>
+        <v>0.1195114491764483</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3995899304786474</v>
+        <v>0.5830279650708909</v>
       </c>
       <c r="L10" t="n">
-        <v>1.109330865586805</v>
+        <v>0.920728217700548</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6450717669744632</v>
+        <v>0.6637576793307353</v>
       </c>
       <c r="N10" t="n">
-        <v>1.040363978321621</v>
+        <v>1.04273630919184</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6725338075772104</v>
+        <v>0.69201521790766</v>
       </c>
       <c r="P10" t="n">
-        <v>123.7535748069958</v>
+        <v>123.639352547519</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.1050001239561</v>
+        <v>197.9907778644793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_15</t>
+          <t>model_1_8_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9374415557564335</v>
+        <v>0.9336310197134681</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7775128550264789</v>
+        <v>0.7661709689639608</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9619684426685221</v>
+        <v>0.9271157901110599</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8107698781636714</v>
+        <v>-5.573086140650871</v>
       </c>
       <c r="F11" t="n">
-        <v>0.938173865032589</v>
+        <v>0.9241460291227227</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4183286047118779</v>
+        <v>0.4438096767770929</v>
       </c>
       <c r="H11" t="n">
-        <v>1.487772562897038</v>
+        <v>1.563615807221681</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3418297987153983</v>
+        <v>1.04103584021015</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4345119026712173</v>
+        <v>0.1130091076016581</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3881708493905938</v>
+        <v>0.5770224297661883</v>
       </c>
       <c r="L11" t="n">
-        <v>1.111048339840304</v>
+        <v>0.9146258980486855</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6467832749166276</v>
+        <v>0.6661904208085651</v>
       </c>
       <c r="N11" t="n">
-        <v>1.040578450320151</v>
+        <v>1.043050149375048</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6743181779557825</v>
+        <v>0.69455152622667</v>
       </c>
       <c r="P11" t="n">
-        <v>123.7429760392517</v>
+        <v>123.6247189287131</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.0944013562119</v>
+        <v>197.9761442456734</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_14</t>
+          <t>model_1_8_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9370768136076275</v>
+        <v>0.9331263673486269</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7772740481426929</v>
+        <v>0.7660669669869018</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9631902193875642</v>
+        <v>0.9274957797363333</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8156381950357141</v>
+        <v>-5.202842308982219</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9399386438781884</v>
+        <v>0.9249211595593433</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4207676371404267</v>
+        <v>0.447184289464497</v>
       </c>
       <c r="H12" t="n">
-        <v>1.489369465628521</v>
+        <v>1.564311268921159</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3308484001282921</v>
+        <v>1.035608288489133</v>
       </c>
       <c r="J12" t="n">
-        <v>0.423333229813271</v>
+        <v>0.1066436159411837</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3770908149707816</v>
+        <v>0.5711259995232917</v>
       </c>
       <c r="L12" t="n">
-        <v>1.112708274174939</v>
+        <v>0.907991567739408</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6486660443868068</v>
+        <v>0.6687183932452412</v>
       </c>
       <c r="N12" t="n">
-        <v>1.040815039822079</v>
+        <v>1.043377491449539</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6762811008201772</v>
+        <v>0.6971871196835998</v>
       </c>
       <c r="P12" t="n">
-        <v>123.7313490569049</v>
+        <v>123.6095689773034</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.0827743738652</v>
+        <v>197.9609942942636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_13</t>
+          <t>model_1_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9366764869833006</v>
+        <v>0.9326003460873796</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7770007966590493</v>
+        <v>0.7659470036406444</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9644055614522999</v>
+        <v>0.9278700726934892</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8202159705311616</v>
+        <v>-4.841115688710575</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9416456864957675</v>
+        <v>0.9256813368035003</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4234446231206359</v>
+        <v>0.4507017960605622</v>
       </c>
       <c r="H13" t="n">
-        <v>1.491196699557853</v>
+        <v>1.565113464369964</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3199248365797887</v>
+        <v>1.030262104676052</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4128217006696761</v>
+        <v>0.1004245581534191</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3663732732198554</v>
+        <v>0.5653433184664739</v>
       </c>
       <c r="L13" t="n">
-        <v>1.114306976753092</v>
+        <v>0.9008044663873498</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6507262274725338</v>
+        <v>0.6713432773630508</v>
       </c>
       <c r="N13" t="n">
-        <v>1.041074711145967</v>
+        <v>1.043718694429808</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6784289901650308</v>
+        <v>0.6999237505525638</v>
       </c>
       <c r="P13" t="n">
-        <v>123.7186650669712</v>
+        <v>123.5938987284935</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.0700903839314</v>
+        <v>197.9453240454537</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_12</t>
+          <t>model_1_8_10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9362392606924894</v>
+        <v>0.9320524378867828</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7766915081947079</v>
+        <v>0.7658105165327503</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9656136386137364</v>
+        <v>0.9282388549207674</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8244880946927954</v>
+        <v>-4.488555253389197</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9432916375081057</v>
+        <v>0.9264259816001161</v>
       </c>
       <c r="G14" t="n">
-        <v>0.426368357340532</v>
+        <v>0.4543656607208384</v>
       </c>
       <c r="H14" t="n">
-        <v>1.493264912943046</v>
+        <v>1.566026154288916</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3090665703950199</v>
+        <v>1.02499463293678</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4030120108596958</v>
+        <v>0.09436309184691247</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3560392906273578</v>
+        <v>0.5596787929988333</v>
       </c>
       <c r="L14" t="n">
-        <v>1.115839007990123</v>
+        <v>0.8930623197462605</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6529688793047737</v>
+        <v>0.6740665106062149</v>
       </c>
       <c r="N14" t="n">
-        <v>1.041358317388656</v>
+        <v>1.044074094343708</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6807671163286981</v>
+        <v>0.7027629174727593</v>
       </c>
       <c r="P14" t="n">
-        <v>123.7049032354956</v>
+        <v>123.5777059700551</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.0563285524558</v>
+        <v>197.9291312870153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_11</t>
+          <t>model_1_8_9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9357634118598106</v>
+        <v>0.9314822148492564</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7763444939584221</v>
+        <v>0.7656568774095907</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9668128085342613</v>
+        <v>0.9286024135587704</v>
       </c>
       <c r="E15" t="n">
-        <v>0.828439577979784</v>
+        <v>-4.145726248875704</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9448725772408789</v>
+        <v>0.9271547086202618</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4295503606757379</v>
+        <v>0.4581787447984134</v>
       </c>
       <c r="H15" t="n">
-        <v>1.495585398738943</v>
+        <v>1.567053539812928</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2982883629977818</v>
+        <v>1.019801771921262</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3939385795014051</v>
+        <v>0.08846893512493798</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3461134765807677</v>
+        <v>0.5541353543240005</v>
       </c>
       <c r="L15" t="n">
-        <v>1.117292741851304</v>
+        <v>0.8847485169561263</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6554009159863434</v>
+        <v>0.6768890195581646</v>
       </c>
       <c r="N15" t="n">
-        <v>1.041666976090934</v>
+        <v>1.044443968746428</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6833026898468124</v>
+        <v>0.7057055864741926</v>
       </c>
       <c r="P15" t="n">
-        <v>123.6900325804778</v>
+        <v>123.5609917970377</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.0414578974381</v>
+        <v>197.9124171139979</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_10</t>
+          <t>model_1_8_8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9352474994073583</v>
+        <v>0.9308890996866577</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7759580458172497</v>
+        <v>0.7654854831511814</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9680019594169024</v>
+        <v>0.9289609269361967</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8320532214456062</v>
+        <v>-3.813395859998228</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9463845680759871</v>
+        <v>0.9278668442925776</v>
       </c>
       <c r="G16" t="n">
-        <v>0.433000269620845</v>
+        <v>0.4621449086217554</v>
       </c>
       <c r="H16" t="n">
-        <v>1.498169579238392</v>
+        <v>1.568199654008109</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2876002072824499</v>
+        <v>1.014680974485654</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3856408989700362</v>
+        <v>0.08275527796720041</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3366205531262431</v>
+        <v>0.5487181263106164</v>
       </c>
       <c r="L16" t="n">
-        <v>1.118666619834892</v>
+        <v>0.8760271841392988</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6580275599249966</v>
+        <v>0.6798124069342626</v>
       </c>
       <c r="N16" t="n">
-        <v>1.042001622006038</v>
+        <v>1.044828692095141</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6860411554558365</v>
+        <v>0.7087534285031372</v>
       </c>
       <c r="P16" t="n">
-        <v>123.6740338565978</v>
+        <v>123.5437535641088</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.0254591735581</v>
+        <v>197.8951788810691</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_9</t>
+          <t>model_1_8_7</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9346897424779076</v>
+        <v>0.9302724474153585</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7755303290499307</v>
+        <v>0.7652956948039756</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9691794224358591</v>
+        <v>0.9293144581024141</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8353128955811506</v>
+        <v>-3.492147913157882</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9478234630913606</v>
+        <v>0.9285617800695689</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4367299927763162</v>
+        <v>0.466268465199355</v>
       </c>
       <c r="H17" t="n">
-        <v>1.50102972323091</v>
+        <v>1.569468769559768</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2770171027501596</v>
+        <v>1.009631340069305</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3781560059890517</v>
+        <v>0.07723215792671093</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3275865564095503</v>
+        <v>0.5434317381896869</v>
       </c>
       <c r="L17" t="n">
-        <v>1.119948341693436</v>
+        <v>0.8675103548978714</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6608555006779593</v>
+        <v>0.6828385352331509</v>
       </c>
       <c r="N17" t="n">
-        <v>1.0423634102846</v>
+        <v>1.045228682757605</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6889894875012973</v>
+        <v>0.7119083853486582</v>
       </c>
       <c r="P17" t="n">
-        <v>123.656880280689</v>
+        <v>123.5259874103272</v>
       </c>
       <c r="Q17" t="n">
-        <v>198.0083055976493</v>
+        <v>197.8774127272874</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_8</t>
+          <t>model_1_8_6</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.934088597636661</v>
+        <v>0.9296316973103091</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7750594360682329</v>
+        <v>0.7650868166086326</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9703437373599247</v>
+        <v>0.9296630706858118</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8382009578481284</v>
+        <v>-3.182706572392847</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9491849926907105</v>
+        <v>0.9292387474453434</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4407498510977495</v>
+        <v>0.4705531641022037</v>
       </c>
       <c r="H18" t="n">
-        <v>1.504178586767785</v>
+        <v>1.570865539013823</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2665521740419871</v>
+        <v>1.004651959841157</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3715244115130791</v>
+        <v>0.07191202533957669</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3190382927775331</v>
+        <v>0.5382820359984352</v>
       </c>
       <c r="L18" t="n">
-        <v>1.121133730354881</v>
+        <v>0.8597397931048696</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6638899389942202</v>
+        <v>0.6859687777896336</v>
       </c>
       <c r="N18" t="n">
-        <v>1.042753342073517</v>
+        <v>1.045644304447367</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6921531081388348</v>
+        <v>0.7151718888112658</v>
       </c>
       <c r="P18" t="n">
-        <v>123.6385555910851</v>
+        <v>123.5076926628728</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.9899809080454</v>
+        <v>197.8591179798331</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_7</t>
+          <t>model_1_8_5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9334422464159186</v>
+        <v>0.9289664195411562</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7745433793852894</v>
+        <v>0.7648580970897476</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9714929607657465</v>
+        <v>0.9300072569016355</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8407000579366877</v>
+        <v>-2.885795161246664</v>
       </c>
       <c r="F19" t="n">
-        <v>0.950464590944583</v>
+        <v>0.9298974124180988</v>
       </c>
       <c r="G19" t="n">
-        <v>0.445072004687028</v>
+        <v>0.4750018796078518</v>
       </c>
       <c r="H19" t="n">
-        <v>1.507629460182851</v>
+        <v>1.572394987489763</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2562228887574757</v>
+        <v>0.9997358032837229</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3657859554791877</v>
+        <v>0.06680731609153134</v>
       </c>
       <c r="K19" t="n">
-        <v>0.311004429083058</v>
+        <v>0.5332715604941789</v>
       </c>
       <c r="L19" t="n">
-        <v>1.122205932387914</v>
+        <v>0.8529215274614964</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6671371708179871</v>
+        <v>0.6892038012140181</v>
       </c>
       <c r="N19" t="n">
-        <v>1.043172596919404</v>
+        <v>1.046075835973304</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6955385813440358</v>
+        <v>0.718544633880248</v>
       </c>
       <c r="P19" t="n">
-        <v>123.61903840324</v>
+        <v>123.4888730357723</v>
       </c>
       <c r="Q19" t="n">
-        <v>197.9704637202002</v>
+        <v>197.8402983527326</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_6</t>
+          <t>model_1_8_4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9327487823423286</v>
+        <v>0.9282758724353604</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7739800835092144</v>
+        <v>0.7646087785496443</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9726252712984803</v>
+        <v>0.9303469250455515</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8427919952183516</v>
+        <v>-2.602192693869307</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9516576295421947</v>
+        <v>0.9305367879271755</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4497092021402324</v>
+        <v>0.4796195712839856</v>
       </c>
       <c r="H20" t="n">
-        <v>1.511396222299904</v>
+        <v>1.574062181715441</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2460456173374769</v>
+        <v>0.9948841802485966</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3609824303336991</v>
+        <v>0.06193142354027842</v>
       </c>
       <c r="K20" t="n">
-        <v>0.303514023835588</v>
+        <v>0.5284078202639231</v>
       </c>
       <c r="L20" t="n">
-        <v>1.123156444782489</v>
+        <v>0.8455866400478186</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6706036102946601</v>
+        <v>0.6925457178295059</v>
       </c>
       <c r="N20" t="n">
-        <v>1.043622411453625</v>
+        <v>1.046523758420307</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6991525943257498</v>
+        <v>0.7220288228047783</v>
       </c>
       <c r="P20" t="n">
-        <v>123.5983082451448</v>
+        <v>123.4695240982936</v>
       </c>
       <c r="Q20" t="n">
-        <v>197.9497335621051</v>
+        <v>197.8209494152539</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_5</t>
+          <t>model_1_8_3</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9320063235224429</v>
+        <v>0.9275593804722504</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7733673799491353</v>
+        <v>0.7643380795261336</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9737386476270198</v>
+        <v>0.9306821970638648</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8444581677854359</v>
+        <v>-2.332674422674258</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9527592566712615</v>
+        <v>0.9311561199148399</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4546740276875162</v>
+        <v>0.484410756340444</v>
       </c>
       <c r="H21" t="n">
-        <v>1.515493373827393</v>
+        <v>1.575872347332111</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2360385276208494</v>
+        <v>0.9900953489253842</v>
       </c>
       <c r="J21" t="n">
-        <v>0.35715654994385</v>
+        <v>0.05729767636910896</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2965975387823497</v>
+        <v>0.5236965514375066</v>
       </c>
       <c r="L21" t="n">
-        <v>1.123971371042895</v>
+        <v>0.8377273953226175</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6742952081154931</v>
+        <v>0.6959962329929983</v>
       </c>
       <c r="N21" t="n">
-        <v>1.044104006363821</v>
+        <v>1.046988509963946</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7030013511084767</v>
+        <v>0.7256262335423317</v>
       </c>
       <c r="P21" t="n">
-        <v>123.5763490788987</v>
+        <v>123.449644124115</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.9277743958589</v>
+        <v>197.8010694410752</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_4</t>
+          <t>model_1_8_2</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9312129406852373</v>
+        <v>0.926816271509741</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7727029194004953</v>
+        <v>0.7640451029926945</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9748305803164327</v>
+        <v>0.9310130376656862</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8456787698694621</v>
+        <v>-2.078049827363522</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9537640554334085</v>
+        <v>0.9317544709605006</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4599793823731027</v>
+        <v>0.4893799293944464</v>
       </c>
       <c r="H22" t="n">
-        <v>1.519936624575709</v>
+        <v>1.577831482760252</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2262241745513835</v>
+        <v>0.9853698133887074</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3543537924928275</v>
+        <v>0.05291999172086694</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2902889835221055</v>
+        <v>0.5191448849891036</v>
       </c>
       <c r="L22" t="n">
-        <v>1.124635049900129</v>
+        <v>0.829343148749859</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6782177986260038</v>
+        <v>0.6995569522165057</v>
       </c>
       <c r="N22" t="n">
-        <v>1.044618633069035</v>
+        <v>1.047470526588276</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7070909344179015</v>
+        <v>0.7293385399548887</v>
       </c>
       <c r="P22" t="n">
-        <v>123.553147222863</v>
+        <v>123.4292322789023</v>
       </c>
       <c r="Q22" t="n">
-        <v>197.9045725398233</v>
+        <v>197.7806575958625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_3</t>
+          <t>model_1_8_1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9303665254561031</v>
+        <v>0.9260458965705239</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7719843271860514</v>
+        <v>0.7637290336464562</v>
       </c>
       <c r="D23" t="n">
-        <v>0.975898720683856</v>
+        <v>0.9313395794913428</v>
       </c>
       <c r="E23" t="n">
-        <v>0.846434609789973</v>
+        <v>-1.83913977604341</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9546668342425213</v>
+        <v>0.9323310173896928</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4656393649077067</v>
+        <v>0.494531430160241</v>
       </c>
       <c r="H23" t="n">
-        <v>1.524741854022508</v>
+        <v>1.579945039933913</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2166236682241316</v>
+        <v>0.9807056790809584</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3526182260893976</v>
+        <v>0.04881248253583157</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2846209530471311</v>
+        <v>0.5147590866241922</v>
       </c>
       <c r="L23" t="n">
-        <v>1.125134209560352</v>
+        <v>0.8204297835050268</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6823777289065834</v>
+        <v>0.7032292870467221</v>
       </c>
       <c r="N23" t="n">
-        <v>1.045167659163609</v>
+        <v>1.047970229251552</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7114279615427682</v>
+        <v>0.7331672136816084</v>
       </c>
       <c r="P23" t="n">
-        <v>123.5286876790314</v>
+        <v>123.408289140929</v>
       </c>
       <c r="Q23" t="n">
-        <v>197.8801129959916</v>
+        <v>197.7597144578892</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_2</t>
+          <t>model_1_8_0</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9294648249457791</v>
+        <v>0.9252475186228836</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7712090588721074</v>
+        <v>0.7633888027309241</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9769403284872785</v>
+        <v>0.9316619686621029</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8467053121073591</v>
+        <v>-1.616835361390961</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9554619095154847</v>
+        <v>0.9328849051989252</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4716690403721928</v>
+        <v>0.4998701871723049</v>
       </c>
       <c r="H24" t="n">
-        <v>1.529926076807633</v>
+        <v>1.582220165632694</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2072616380900244</v>
+        <v>0.9761008588905724</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3519966370007075</v>
+        <v>0.04499046910436076</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2796291313167527</v>
+        <v>0.5105456527616697</v>
       </c>
       <c r="L24" t="n">
-        <v>1.125450379564985</v>
+        <v>0.8109824582515563</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6867816540736894</v>
+        <v>0.7070149836971666</v>
       </c>
       <c r="N24" t="n">
-        <v>1.045752545981116</v>
+        <v>1.0484880960284</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7160193709216198</v>
+        <v>0.7371140752759349</v>
       </c>
       <c r="P24" t="n">
-        <v>123.5029554499887</v>
+        <v>123.3868136798478</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.8543807669489</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_1_8_1</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9285058148027612</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7703745208848765</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9779525855527338</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.8464700057002703</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9561434416460951</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.4780819456143885</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.535506636170941</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.1981634140568369</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.3525369496827622</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2753501818697995</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.125561806619987</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.6914347009041335</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.046374606614425</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.7208705075887707</v>
-      </c>
-      <c r="P25" t="n">
-        <v>123.4759462536883</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>197.8273715706485</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_1_8_0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9274869735563332</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7694778784203602</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9789321127403092</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.845707775242994</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9567051911166513</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4848949417205852</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.54150248845982</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.1893593680261463</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.3542871900940195</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.2718232790600829</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.125441865552629</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.696343982325248</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.047035476612108</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.7259887872835955</v>
-      </c>
-      <c r="P26" t="n">
-        <v>123.4476460530364</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>197.7990713699966</v>
+        <v>197.7382389968081</v>
       </c>
     </row>
   </sheetData>
